--- a/AAII_Financials/Quarterly/PUBM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUBM_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E8" s="3">
         <v>92500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>26400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>28300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>34400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>28500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>27400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>23600</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E9" s="3">
         <v>29700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8800</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E10" s="3">
         <v>62800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>17200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>18200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>18900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>19000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14800</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E12" s="3">
         <v>9300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3100</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,26 +964,27 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E17" s="3">
         <v>83000</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3">
         <v>28500</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -968,26 +994,29 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E18" s="3">
         <v>9500</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3">
         <v>5900</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -997,8 +1026,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,26 +1042,27 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1039,26 +1072,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E21" s="3">
         <v>21500</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>18500</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1068,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,66 +1136,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E23" s="3">
         <v>9900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E24" s="3">
         <v>2100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,26 +1232,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E26" s="3">
         <v>7800</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3">
         <v>4100</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1213,26 +1264,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E27" s="3">
         <v>7800</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1242,8 +1296,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,26 +1424,29 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1387,26 +1456,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E33" s="3">
         <v>7800</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1416,8 +1488,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,26 +1520,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E35" s="3">
         <v>7800</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1474,42 +1552,48 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,17 +1619,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>81200</v>
+      </c>
+      <c r="E41" s="3">
         <v>40600</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1563,17 +1649,20 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E42" s="3">
         <v>14600</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1592,17 +1681,20 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>219500</v>
+      </c>
+      <c r="E43" s="3">
         <v>140500</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1621,8 +1713,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,17 +1745,20 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E45" s="3">
         <v>7500</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1679,17 +1777,20 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>327100</v>
+      </c>
+      <c r="E46" s="3">
         <v>203200</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1708,8 +1809,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,17 +1841,20 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E48" s="3">
         <v>27500</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1766,16 +1873,19 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>6300</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
+      <c r="E49" s="3">
+        <v>6300</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1795,8 +1905,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,17 +1969,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E52" s="3">
         <v>3100</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,17 +2033,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>371200</v>
+      </c>
+      <c r="E54" s="3">
         <v>240100</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1940,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,17 +2095,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>176700</v>
+      </c>
+      <c r="E57" s="3">
         <v>118500</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1995,8 +2125,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2024,17 +2157,20 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E59" s="3">
         <v>11000</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2053,17 +2189,20 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>191600</v>
+      </c>
+      <c r="E60" s="3">
         <v>129600</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2082,8 +2221,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,17 +2253,20 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E62" s="3">
         <v>2400</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2140,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,17 +2381,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>195800</v>
+      </c>
+      <c r="E66" s="3">
         <v>132000</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2256,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,17 +2491,20 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>61200</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,17 +2555,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E72" s="3">
         <v>23900</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,17 +2683,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>175400</v>
+      </c>
+      <c r="E76" s="3">
         <v>46900</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,60 +2747,66 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E81" s="3">
         <v>7800</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2622,8 +2816,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,17 +2832,18 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E83" s="3">
         <v>11600</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2664,8 +2862,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,17 +3022,20 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E89" s="3">
         <v>13800</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +3054,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,17 +3070,18 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12900</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2880,8 +3100,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,17 +3164,20 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11800</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3196,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,17 +3338,20 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E100" s="3">
         <v>4400</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3125,8 +3370,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,17 +3402,20 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E102" s="3">
         <v>6400</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3181,6 +3432,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUBM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUBM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
   <si>
     <t>PUBM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E8" s="3">
         <v>56200</v>
       </c>
-      <c r="E8" s="3">
-        <v>92500</v>
-      </c>
       <c r="F8" s="3">
+        <v>37800</v>
+      </c>
+      <c r="G8" s="3">
         <v>26400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>28300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>34400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>28500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>27400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>23600</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E9" s="3">
         <v>11500</v>
       </c>
-      <c r="E9" s="3">
-        <v>29700</v>
-      </c>
       <c r="F9" s="3">
+        <v>10500</v>
+      </c>
+      <c r="G9" s="3">
         <v>9200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8800</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E10" s="3">
         <v>44800</v>
       </c>
-      <c r="E10" s="3">
-        <v>62800</v>
-      </c>
       <c r="F10" s="3">
+        <v>27300</v>
+      </c>
+      <c r="G10" s="3">
         <v>17200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>18200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>25100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>18900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>19000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14800</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,40 +839,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E12" s="3">
         <v>3000</v>
       </c>
-      <c r="E12" s="3">
-        <v>9300</v>
-      </c>
       <c r="F12" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G12" s="3">
         <v>3000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3100</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +942,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,29 +991,30 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E17" s="3">
         <v>34000</v>
       </c>
-      <c r="E17" s="3">
-        <v>83000</v>
-      </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3">
         <v>28500</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -997,29 +1024,32 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E18" s="3">
         <v>22200</v>
       </c>
-      <c r="E18" s="3">
-        <v>9500</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
         <v>5900</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1029,8 +1059,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,29 +1076,30 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-500</v>
       </c>
-      <c r="E20" s="3">
-        <v>300</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1075,29 +1109,32 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E21" s="3">
         <v>25900</v>
       </c>
-      <c r="E21" s="3">
-        <v>21500</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>18500</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,8 +1144,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,72 +1179,81 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E23" s="3">
         <v>21700</v>
       </c>
-      <c r="E23" s="3">
-        <v>9900</v>
-      </c>
       <c r="F23" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>2900</v>
       </c>
-      <c r="E24" s="3">
-        <v>2100</v>
-      </c>
       <c r="F24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,29 +1284,32 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E26" s="3">
         <v>18800</v>
       </c>
-      <c r="E26" s="3">
-        <v>7800</v>
-      </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="3">
         <v>4100</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1267,16 +1319,19 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>18800</v>
+        <v>4900</v>
       </c>
       <c r="E27" s="3">
-        <v>7800</v>
+        <v>5400</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1284,12 +1339,12 @@
       <c r="G27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1299,8 +1354,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,29 +1494,32 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>500</v>
       </c>
-      <c r="E32" s="3">
-        <v>-300</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1459,16 +1529,19 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>18800</v>
+        <v>4900</v>
       </c>
       <c r="E33" s="3">
-        <v>7800</v>
+        <v>5400</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1476,12 +1549,12 @@
       <c r="G33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1491,8 +1564,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,16 +1599,19 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>18800</v>
+        <v>4900</v>
       </c>
       <c r="E35" s="3">
-        <v>7800</v>
+        <v>5400</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1540,12 +1619,12 @@
       <c r="G35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1555,45 +1634,51 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,20 +1706,21 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E41" s="3">
         <v>81200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>40600</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1652,20 +1739,23 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E42" s="3">
         <v>19800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>14600</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1684,20 +1774,23 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>173100</v>
+      </c>
+      <c r="E43" s="3">
         <v>219500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>140500</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1809,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,20 +1844,23 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E45" s="3">
         <v>6600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7500</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1780,20 +1879,23 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>291100</v>
+      </c>
+      <c r="E46" s="3">
         <v>327100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>203200</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,8 +1914,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,20 +1949,23 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E48" s="3">
         <v>30000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>27500</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1876,8 +1984,11 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1887,8 +1998,8 @@
       <c r="E49" s="3">
         <v>6300</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+      <c r="F49" s="3">
+        <v>6300</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,20 +2089,23 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E52" s="3">
         <v>7800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,20 +2159,23 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>333500</v>
+      </c>
+      <c r="E54" s="3">
         <v>371200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>240100</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2068,8 +2194,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,20 +2226,21 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>127200</v>
+      </c>
+      <c r="E57" s="3">
         <v>176700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>118500</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,8 +2259,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,20 +2294,23 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E59" s="3">
         <v>14800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,20 +2329,23 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>145300</v>
+      </c>
+      <c r="E60" s="3">
         <v>191600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>129600</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2224,8 +2364,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,20 +2399,23 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E62" s="3">
         <v>4200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2400</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,20 +2539,23 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>149400</v>
+      </c>
+      <c r="E66" s="3">
         <v>195800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>132000</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2416,8 +2574,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2503,11 +2671,11 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>61200</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,20 +2729,23 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E72" s="3">
         <v>42700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>23900</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2590,8 +2764,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,20 +2869,23 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>184100</v>
+      </c>
+      <c r="E76" s="3">
         <v>175400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>46900</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2718,8 +2904,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,53 +2939,59 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>18800</v>
+        <v>4900</v>
       </c>
       <c r="E81" s="3">
-        <v>7800</v>
+        <v>5400</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2804,12 +2999,12 @@
       <c r="G81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2819,8 +3014,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,17 +3031,18 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E83" s="3">
         <v>4200</v>
       </c>
-      <c r="E83" s="3">
-        <v>11600</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,17 +3239,20 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E89" s="3">
         <v>10500</v>
       </c>
-      <c r="E89" s="3">
-        <v>13800</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3274,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,17 +3291,18 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11300</v>
       </c>
-      <c r="E91" s="3">
-        <v>-12900</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,17 +3394,20 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-18100</v>
       </c>
-      <c r="E94" s="3">
-        <v>-11800</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,17 +3584,20 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
         <v>48100</v>
       </c>
-      <c r="E100" s="3">
-        <v>4400</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3373,8 +3619,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,17 +3654,20 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E102" s="3">
         <v>40600</v>
       </c>
-      <c r="E102" s="3">
-        <v>6400</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3435,6 +3687,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUBM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUBM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E8" s="3">
         <v>43600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>56200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>37800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>26400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>28300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>34400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>28500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>27400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>23600</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E9" s="3">
         <v>12300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8800</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E10" s="3">
         <v>31300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>44800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>27300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>17200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>18200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>25100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>18900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14800</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E12" s="3">
         <v>3700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3100</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,32 +1018,33 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E17" s="3">
         <v>37000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>34000</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3">
         <v>28500</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1027,32 +1054,35 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E18" s="3">
         <v>6600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>22200</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
         <v>5900</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1062,8 +1092,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,32 +1110,33 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1112,32 +1146,35 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E21" s="3">
         <v>11400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>25900</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>18500</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1147,8 +1184,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,78 +1222,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E23" s="3">
         <v>6800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-500</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,32 +1336,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E26" s="3">
         <v>4900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>18800</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="3">
         <v>4100</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,32 +1374,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E27" s="3">
         <v>4900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5400</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1357,8 +1412,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,32 +1564,35 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1532,32 +1602,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E33" s="3">
         <v>4900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5400</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1567,8 +1640,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,32 +1678,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E35" s="3">
         <v>4900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5400</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1637,48 +1716,54 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,23 +1793,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>90600</v>
+      </c>
+      <c r="E41" s="3">
         <v>76600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>81200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>40600</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1742,23 +1829,26 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E42" s="3">
         <v>33400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>19800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>14600</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1777,23 +1867,26 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>195400</v>
+      </c>
+      <c r="E43" s="3">
         <v>173100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>219500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>140500</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,8 +1905,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,23 +1943,26 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E45" s="3">
         <v>8000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7500</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,23 +1981,26 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>331600</v>
+      </c>
+      <c r="E46" s="3">
         <v>291100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>327100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>203200</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1917,8 +2019,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,23 +2057,26 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E48" s="3">
         <v>34000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>30000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27500</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1987,8 +2095,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2001,8 +2112,8 @@
       <c r="F49" s="3">
         <v>6300</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>6300</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,23 +2209,26 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E52" s="3">
         <v>2200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,23 +2285,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>383800</v>
+      </c>
+      <c r="E54" s="3">
         <v>333500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>371200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>240100</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,23 +2357,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>151600</v>
+      </c>
+      <c r="E57" s="3">
         <v>127200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>176700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>118500</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2262,8 +2393,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,23 +2431,26 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E59" s="3">
         <v>18100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,23 +2469,26 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>176400</v>
+      </c>
+      <c r="E60" s="3">
         <v>145300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>191600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>129600</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2367,8 +2507,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,23 +2545,26 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E62" s="3">
         <v>4100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2400</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,23 +2697,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>181700</v>
+      </c>
+      <c r="E66" s="3">
         <v>149400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>195800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>132000</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2674,11 +2842,11 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>61200</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,23 +2903,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E72" s="3">
         <v>47600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>42700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>23900</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2767,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,23 +3055,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>202100</v>
+      </c>
+      <c r="E76" s="3">
         <v>184100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>175400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>46900</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,72 +3131,78 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E81" s="3">
         <v>4900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5400</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3017,8 +3212,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,20 +3230,21 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E83" s="3">
         <v>4600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4200</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,20 +3456,23 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E89" s="3">
         <v>12700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10500</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3277,8 +3494,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,20 +3512,21 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11300</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,20 +3624,23 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18100</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,20 +3830,23 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>48100</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3622,8 +3868,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,20 +3906,23 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>40600</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3690,6 +3942,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUBM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUBM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
   <si>
     <t>PUBM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,206 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>58100</v>
+      </c>
+      <c r="F8" s="3">
         <v>49700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>43600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>56200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>37800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>26400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>28300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>34400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>28500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>27400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>23600</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F9" s="3">
         <v>13100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>12300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>11500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>10500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>9200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>10100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>9300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>9600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>8400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>8800</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>58700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>42100</v>
+      </c>
+      <c r="F10" s="3">
         <v>36600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>31300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>44800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>27300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>17200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>18200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>25100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>18900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>19000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>14800</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,46 +879,54 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F12" s="3">
         <v>3900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>3700</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>3400</v>
       </c>
       <c r="H12" s="3">
         <v>3000</v>
       </c>
       <c r="I12" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K12" s="3">
         <v>2900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>3100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>3000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>3300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>3100</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>44000</v>
+      </c>
+      <c r="F17" s="3">
         <v>39500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>37000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>34000</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3">
         <v>28500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F18" s="3">
         <v>10200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>6600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>22200</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>5900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,84 +1176,98 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>20600</v>
+      </c>
+      <c r="F21" s="3">
         <v>15000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>11400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>25900</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>18500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,84 +1304,102 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F23" s="3">
         <v>9900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>6800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>21700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>7900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>5800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="E24" s="3">
+        <v>800</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>2900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-500</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F26" s="3">
         <v>9900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>4900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>18800</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3">
         <v>4100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F27" s="3">
         <v>9900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>4900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>5400</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F33" s="3">
         <v>9900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>4900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>5400</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F35" s="3">
         <v>9900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>4900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>5400</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,29 +1965,31 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>89400</v>
+      </c>
+      <c r="F41" s="3">
         <v>90600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>76600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>81200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>40600</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1832,29 +2005,35 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>77100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>47400</v>
+      </c>
+      <c r="F42" s="3">
         <v>31400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>33400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>19800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>14600</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1870,29 +2049,35 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>286900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>228400</v>
+      </c>
+      <c r="F43" s="3">
         <v>195400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>173100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>219500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>140500</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1908,8 +2093,14 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2137,14 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1955,20 +2152,20 @@
         <v>14200</v>
       </c>
       <c r="E45" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>14200</v>
+      </c>
+      <c r="G45" s="3">
         <v>8000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>6600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>7500</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,29 +2181,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>460700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>378100</v>
+      </c>
+      <c r="F46" s="3">
         <v>331600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>291100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>327100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>203200</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,8 +2225,14 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,29 +2269,35 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>51900</v>
+      </c>
+      <c r="F48" s="3">
         <v>43600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>34000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>30000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>27500</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2313,14 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2115,11 +2336,11 @@
       <c r="G49" s="3">
         <v>6300</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I49" s="3">
+        <v>6300</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,29 +2445,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F52" s="3">
         <v>2300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>7800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,8 +2489,14 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,29 +2533,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>550200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>438800</v>
+      </c>
+      <c r="F54" s="3">
         <v>383800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>333500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>371200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>240100</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2326,8 +2577,14 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,29 +2617,31 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>244300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>185500</v>
+      </c>
+      <c r="F57" s="3">
         <v>151600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>127200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>176700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>118500</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2396,8 +2657,14 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,29 +2701,35 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>27500</v>
+      </c>
+      <c r="F59" s="3">
         <v>24800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>18100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>14800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>11000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,29 +2745,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>213000</v>
+      </c>
+      <c r="F60" s="3">
         <v>176400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>145300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>191600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>129600</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2510,8 +2789,14 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,29 +2833,35 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F62" s="3">
         <v>5300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>4100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>4200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,29 +3009,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>293000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>218000</v>
+      </c>
+      <c r="F66" s="3">
         <v>181700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>149400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>195800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>132000</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +3053,14 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2845,14 +3180,14 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>61200</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,29 +3247,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>99300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>71100</v>
+      </c>
+      <c r="F72" s="3">
         <v>57500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>47600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>42700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>23900</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2944,8 +3291,14 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,29 +3423,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>257200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>220800</v>
+      </c>
+      <c r="F76" s="3">
         <v>202100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>184100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>175400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>46900</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3467,14 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F81" s="3">
         <v>9900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>4900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>5400</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,26 +3626,28 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F83" s="3">
         <v>5100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>4600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>4200</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,25 +3886,31 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>26400</v>
+      </c>
+      <c r="F89" s="3">
         <v>21100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>12700</v>
       </c>
-      <c r="F89" s="3">
-        <v>10500</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3">
+        <v>8600</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3497,8 +3930,14 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,26 +3952,28 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-11500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-11300</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,26 +4080,32 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-11300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-16800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-18100</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3665,8 +4124,14 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,26 +4318,32 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F100" s="3">
         <v>4200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>48100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3871,8 +4362,14 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,26 +4406,32 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F102" s="3">
         <v>14000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-4500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>40600</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3945,6 +4448,12 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUBM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUBM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
   <si>
     <t>PUBM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E8" s="3">
         <v>75600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>58100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>49700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>43600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>56200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>37800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>26400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>28300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>34400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>28500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>27400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>23600</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E9" s="3">
         <v>16900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8800</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E10" s="3">
         <v>58700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>42100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>36600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>31300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>44800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>27300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>17200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>25100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>19000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>14800</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>4100</v>
+        <v>4800</v>
       </c>
       <c r="E12" s="3">
         <v>4100</v>
       </c>
       <c r="F12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G12" s="3">
         <v>3900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3100</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,41 +1098,42 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>50000</v>
       </c>
       <c r="E17" s="3">
+        <v>47600</v>
+      </c>
+      <c r="F17" s="3">
         <v>44000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>39500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>37000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>34000</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3">
         <v>28500</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1116,41 +1143,44 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>4600</v>
       </c>
       <c r="E18" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F18" s="3">
         <v>14100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>22200</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>5900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1160,8 +1190,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,41 +1211,42 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>1600</v>
       </c>
       <c r="E20" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1222,41 +1256,44 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>13400</v>
       </c>
       <c r="E21" s="3">
+        <v>40800</v>
+      </c>
+      <c r="F21" s="3">
         <v>20600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>15000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>25900</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>18500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E23" s="3">
         <v>33700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2800</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>5500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-500</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,41 +1491,44 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>4800</v>
       </c>
       <c r="E26" s="3">
+        <v>28200</v>
+      </c>
+      <c r="F26" s="3">
         <v>13500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>18800</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3">
         <v>4100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1486,41 +1538,44 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>4800</v>
       </c>
       <c r="E27" s="3">
+        <v>28200</v>
+      </c>
+      <c r="F27" s="3">
         <v>13500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5400</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1530,8 +1585,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,41 +1773,44 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-1600</v>
       </c>
       <c r="E32" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1750,41 +1820,44 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>4800</v>
       </c>
       <c r="E33" s="3">
+        <v>28200</v>
+      </c>
+      <c r="F33" s="3">
         <v>13500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5400</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1794,8 +1867,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,41 +1914,44 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>4800</v>
       </c>
       <c r="E35" s="3">
+        <v>28200</v>
+      </c>
+      <c r="F35" s="3">
         <v>13500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5400</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,57 +1961,63 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,32 +2053,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>74500</v>
+      </c>
+      <c r="E41" s="3">
         <v>82500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>89400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>90600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>76600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>81200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>40600</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,32 +2098,35 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>100300</v>
+      </c>
+      <c r="E42" s="3">
         <v>77100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>47400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>31400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>33400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>19800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>14600</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2055,32 +2145,35 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>218400</v>
+      </c>
+      <c r="E43" s="3">
         <v>286900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>228400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>195400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>173100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>219500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>140500</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,32 +2239,35 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E45" s="3">
         <v>14200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7500</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,32 +2286,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>404900</v>
+      </c>
+      <c r="E46" s="3">
         <v>460700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>378100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>331600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>291100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>327100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>203200</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,32 +2380,35 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>50100</v>
+        <v>71800</v>
       </c>
       <c r="E48" s="3">
+        <v>71800</v>
+      </c>
+      <c r="F48" s="3">
         <v>51900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>43600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>34000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>30000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>27500</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2342,8 +2453,8 @@
       <c r="I49" s="3">
         <v>6300</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>6300</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,32 +2568,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E52" s="3">
         <v>11500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,32 +2662,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>497600</v>
+      </c>
+      <c r="E54" s="3">
         <v>550200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>438800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>383800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>333500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>371200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>240100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,32 +2749,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>244300</v>
+        <v>177000</v>
       </c>
       <c r="E57" s="3">
+        <v>235400</v>
+      </c>
+      <c r="F57" s="3">
         <v>185500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>151600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>127200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>176700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>118500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,32 +2841,35 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18800</v>
+        <v>23500</v>
       </c>
       <c r="E59" s="3">
+        <v>31500</v>
+      </c>
+      <c r="F59" s="3">
         <v>27500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>18100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,32 +2888,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>200600</v>
+      </c>
+      <c r="E60" s="3">
         <v>267000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>213000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>176400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>145300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>191600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>129600</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,32 +2982,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8200</v>
+        <v>29300</v>
       </c>
       <c r="E62" s="3">
+        <v>26100</v>
+      </c>
+      <c r="F62" s="3">
         <v>5000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2400</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,32 +3170,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>229900</v>
+      </c>
+      <c r="E66" s="3">
         <v>293000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>218000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>181700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>149400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>195800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>132000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3186,11 +3354,11 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>61200</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,32 +3424,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>104100</v>
+      </c>
+      <c r="E72" s="3">
         <v>99300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>71100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>57500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>47600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>42700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>23900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,32 +3612,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>267700</v>
+      </c>
+      <c r="E76" s="3">
         <v>257200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>220800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>202100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>184100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>175400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>46900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,90 +3706,96 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>4800</v>
       </c>
       <c r="E81" s="3">
+        <v>28200</v>
+      </c>
+      <c r="F81" s="3">
         <v>13500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5400</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3610,8 +3805,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,29 +3826,30 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E83" s="3">
         <v>7100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4200</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,29 +4106,32 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E89" s="3">
         <v>28500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>26400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>21100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8600</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,29 +4174,30 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11300</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,29 +4313,32 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-39600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-28900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-16800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-18100</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,29 +4567,32 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>4300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>48100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,29 +4661,32 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>40600</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUBM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUBM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E8" s="3">
         <v>54600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>75600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>58100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>49700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>43600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>56200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>37800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>28300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>34400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>28500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>27400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>23600</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E9" s="3">
         <v>18000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8800</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E10" s="3">
         <v>36600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>58700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>42100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>36600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>31300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>44800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>27300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>25100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>19000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>14800</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E12" s="3">
         <v>4800</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4100</v>
       </c>
       <c r="F12" s="3">
         <v>4100</v>
       </c>
       <c r="G12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H12" s="3">
         <v>3900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3100</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,44 +1125,45 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E17" s="3">
         <v>50000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>47600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>44000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>39500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>37000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>34000</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3">
         <v>28500</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,44 +1173,47 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E18" s="3">
         <v>4600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>28000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>22200</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
         <v>5900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1193,8 +1223,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,44 +1245,45 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1259,44 +1293,47 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E21" s="3">
         <v>13400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>40800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>20600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>15000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>25900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>18500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,8 +1343,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E23" s="3">
         <v>6200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>33700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>21700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-500</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,44 +1543,47 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E26" s="3">
         <v>4800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>28200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>13500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>18800</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3">
         <v>4100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1541,44 +1593,47 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E27" s="3">
         <v>4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>28200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>13500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5400</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1588,8 +1643,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,44 +1843,47 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1823,44 +1893,47 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E33" s="3">
         <v>4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>28200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>13500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5400</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1870,8 +1943,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,44 +1993,47 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E35" s="3">
         <v>4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>28200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>13500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5400</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1964,60 +2043,66 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,35 +2140,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E41" s="3">
         <v>74500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>82500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>89400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>90600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>76600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>81200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>40600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2101,35 +2188,38 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>131100</v>
+      </c>
+      <c r="E42" s="3">
         <v>100300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>77100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>47400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>31400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>33400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>19800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>14600</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2148,35 +2238,38 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>264000</v>
+      </c>
+      <c r="E43" s="3">
         <v>218400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>286900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>228400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>195400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>173100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>219500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>140500</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,35 +2338,38 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E45" s="3">
         <v>11800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7500</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,35 +2388,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>460100</v>
+      </c>
+      <c r="E46" s="3">
         <v>404900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>460700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>378100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>331600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>291100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>327100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>203200</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,35 +2488,38 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>71800</v>
+        <v>91600</v>
       </c>
       <c r="E48" s="3">
         <v>71800</v>
       </c>
       <c r="F48" s="3">
+        <v>71800</v>
+      </c>
+      <c r="G48" s="3">
         <v>51900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>43600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>34000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>30000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>27500</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2456,8 +2567,8 @@
       <c r="J49" s="3">
         <v>6300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3">
+        <v>6300</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,35 +2688,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E52" s="3">
         <v>14700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>11500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,35 +2788,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>570200</v>
+      </c>
+      <c r="E54" s="3">
         <v>497600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>550200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>438800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>383800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>333500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>371200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>240100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,35 +2880,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E57" s="3">
         <v>177000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>235400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>185500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>151600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>127200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>176700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>118500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,35 +2978,38 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>236500</v>
+      </c>
+      <c r="E59" s="3">
         <v>23500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>31500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>27500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>18100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2891,35 +3028,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>255400</v>
+      </c>
+      <c r="E60" s="3">
         <v>200600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>267000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>213000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>176400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>145300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>191600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>129600</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,35 +3128,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E62" s="3">
         <v>29300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>26100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,35 +3328,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>286300</v>
+      </c>
+      <c r="E66" s="3">
         <v>229900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>293000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>218000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>181700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>149400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>195800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>132000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3357,11 +3525,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>61200</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,35 +3598,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>111900</v>
+      </c>
+      <c r="E72" s="3">
         <v>104100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>99300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>71100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>57500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>47600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>42700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>23900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,35 +3798,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>283900</v>
+      </c>
+      <c r="E76" s="3">
         <v>267700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>257200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>220800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>202100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>184100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>175400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>46900</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,96 +3898,102 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E81" s="3">
         <v>4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>28200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>13500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5400</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3808,8 +4003,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,32 +4025,33 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E83" s="3">
         <v>7200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4200</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,32 +4323,35 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E89" s="3">
         <v>19300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>28500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>26400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>21100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>12700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8600</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,32 +4395,33 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11300</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,32 +4543,35 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-27800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-39600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-28900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18100</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,32 +4813,35 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>48100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4617,8 +4863,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,32 +4913,35 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>40600</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUBM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUBM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>64500</v>
+      </c>
+      <c r="E8" s="3">
         <v>63000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>54600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>75600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>58100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>49700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>43600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>56200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>37800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>28300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>34400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>28500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>27400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>23600</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E9" s="3">
         <v>19000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>18000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>16000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8800</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E10" s="3">
         <v>44000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>36600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>58700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>42100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>36600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>31300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>44800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>27300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>25100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>18900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>19000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>14800</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -918,49 +932,52 @@
         <v>5100</v>
       </c>
       <c r="E12" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F12" s="3">
         <v>4800</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4100</v>
       </c>
       <c r="G12" s="3">
         <v>4100</v>
       </c>
       <c r="H12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I12" s="3">
         <v>3900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3100</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,47 +1152,48 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E17" s="3">
         <v>53200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>50000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>47600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>44000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>39500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>37000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>34000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3">
         <v>28500</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1176,47 +1203,50 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E18" s="3">
         <v>9800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>28000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>14100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>22200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>5900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1226,8 +1256,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,47 +1279,48 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-4900</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1296,47 +1330,50 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E21" s="3">
         <v>17100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>13400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>40800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>20600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>15000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>25900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>18500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1346,8 +1383,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,108 +1436,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E23" s="3">
         <v>9700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>33700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>21700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2800</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-500</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,47 +1595,50 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E26" s="3">
         <v>7800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>28200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>13500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>18800</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3">
         <v>4100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1596,47 +1648,50 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E27" s="3">
         <v>7800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>28200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>13500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1646,8 +1701,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,47 +1913,50 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1896,47 +1966,50 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E33" s="3">
         <v>7800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>28200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>13500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1946,8 +2019,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,47 +2072,50 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E35" s="3">
         <v>7800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>28200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>13500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2046,63 +2125,69 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,38 +2227,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E41" s="3">
         <v>51900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>74500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>82500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>89400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>90600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>76600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>81200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>40600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,38 +2278,41 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>113900</v>
+      </c>
+      <c r="E42" s="3">
         <v>131100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>100300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>77100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>47400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>31400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>33400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>19800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14600</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2241,38 +2331,41 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>277300</v>
+      </c>
+      <c r="E43" s="3">
         <v>264000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>218400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>286900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>228400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>195400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>173100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>219500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>140500</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,38 +2437,41 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E45" s="3">
         <v>13100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7500</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2391,38 +2490,41 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>458200</v>
+      </c>
+      <c r="E46" s="3">
         <v>460100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>404900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>460700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>378100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>331600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>291100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>327100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>203200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2441,8 +2543,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,38 +2596,41 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>102700</v>
+      </c>
+      <c r="E48" s="3">
         <v>91600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>71800</v>
       </c>
       <c r="F48" s="3">
         <v>71800</v>
       </c>
       <c r="G48" s="3">
+        <v>71800</v>
+      </c>
+      <c r="H48" s="3">
         <v>51900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>43600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>34000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>30000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27500</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2541,13 +2649,16 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6300</v>
+        <v>38700</v>
       </c>
       <c r="E49" s="3">
         <v>6300</v>
@@ -2570,8 +2681,8 @@
       <c r="K49" s="3">
         <v>6300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+      <c r="L49" s="3">
+        <v>6300</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,38 +2808,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E52" s="3">
         <v>12300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>11500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,38 +2914,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>602200</v>
+      </c>
+      <c r="E54" s="3">
         <v>570200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>497600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>550200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>438800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>383800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>333500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>371200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>240100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,38 +3011,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>238400</v>
+      </c>
+      <c r="E57" s="3">
         <v>19000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>177000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>235400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>185500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>151600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>127200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>176700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>118500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2931,8 +3062,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,38 +3115,41 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E59" s="3">
         <v>236500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>23500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>31500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>27500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>24800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,38 +3168,41 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>279000</v>
+      </c>
+      <c r="E60" s="3">
         <v>255400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>200600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>267000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>213000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>176400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>145300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>191600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>129600</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3081,8 +3221,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,38 +3274,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E62" s="3">
         <v>30900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>29300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>26100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,38 +3486,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>309600</v>
+      </c>
+      <c r="E66" s="3">
         <v>286300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>229900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>293000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>218000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>181700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>149400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>195800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>132000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,8 +3539,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3528,11 +3696,11 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>61200</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,38 +3772,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>115200</v>
+      </c>
+      <c r="E72" s="3">
         <v>111900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>104100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>99300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>71100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>57500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>47600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>42700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>23900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3825,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,38 +3984,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>292600</v>
+      </c>
+      <c r="E76" s="3">
         <v>283900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>267700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>257200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>220800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>202100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>184100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>175400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>46900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3851,8 +4037,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,102 +4090,108 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E81" s="3">
         <v>7800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>28200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>13500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4006,8 +4201,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,35 +4224,36 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E83" s="3">
         <v>7300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,35 +4540,38 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E89" s="3">
         <v>20500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>19300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>28500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>26400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>12700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8600</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4376,8 +4593,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,35 +4616,36 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,35 +4773,38 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-45800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-27800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-39600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-28900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-16800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-18100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,35 +5059,38 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>2700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>48100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4866,8 +5112,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,35 +5165,38 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-22600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>14000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>40600</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4964,6 +5216,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUBM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUBM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>74300</v>
+      </c>
+      <c r="E8" s="3">
         <v>64500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>63000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>54600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>75600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>58100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>49700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>43600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>56200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>37800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>28300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>34400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>28500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>27400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>23600</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E9" s="3">
         <v>21600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>19000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>18000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>16900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>16000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8800</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E10" s="3">
         <v>42900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>44000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>36600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>58700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>42100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>36600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>31300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>44800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>27300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>25100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>18900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>19000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>14800</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>5100</v>
+        <v>5900</v>
       </c>
       <c r="E12" s="3">
         <v>5100</v>
       </c>
       <c r="F12" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G12" s="3">
         <v>4800</v>
-      </c>
-      <c r="G12" s="3">
-        <v>4100</v>
       </c>
       <c r="H12" s="3">
         <v>4100</v>
       </c>
       <c r="I12" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J12" s="3">
         <v>3900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3100</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,50 +1178,51 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E17" s="3">
         <v>54900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>53200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>50000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>47600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>44000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>39500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>37000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>34000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3">
         <v>28500</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1206,50 +1232,53 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E18" s="3">
         <v>9600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>28000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>14100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>22200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
         <v>5900</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1259,8 +1288,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,50 +1312,51 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4900</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1333,50 +1366,53 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E21" s="3">
         <v>13800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>17100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>13400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>40800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>20600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>15000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>25900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>18500</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1386,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E23" s="3">
         <v>4700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>33700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>14300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>21700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2800</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-500</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,50 +1646,53 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E26" s="3">
         <v>3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>28200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>13500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>18800</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3">
         <v>4100</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,50 +1702,53 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E27" s="3">
         <v>3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>28200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>13500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1704,8 +1758,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,50 +1982,53 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>4900</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1969,50 +2038,53 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E33" s="3">
         <v>3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>28200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>13500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,8 +2094,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,50 +2150,53 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E35" s="3">
         <v>3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>28200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>13500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,66 +2206,72 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,41 +2313,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>92400</v>
+      </c>
+      <c r="E41" s="3">
         <v>52200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>51900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>74500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>82500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>89400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>90600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>76600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>81200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>40600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2281,41 +2367,44 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E42" s="3">
         <v>113900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>131100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>100300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>77100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>47400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>31400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>33400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>19800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14600</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,41 +2423,44 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>314300</v>
+      </c>
+      <c r="E43" s="3">
         <v>277300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>264000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>218400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>286900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>228400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>195400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>173100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>219500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>140500</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2387,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,41 +2535,44 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E45" s="3">
         <v>14900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7500</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2493,41 +2591,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>503500</v>
+      </c>
+      <c r="E46" s="3">
         <v>458200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>460100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>404900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>460700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>378100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>331600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>291100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>327100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>203200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2546,8 +2647,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,41 +2703,44 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>97400</v>
+      </c>
+      <c r="E48" s="3">
         <v>102700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>91600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>71800</v>
       </c>
       <c r="G48" s="3">
         <v>71800</v>
       </c>
       <c r="H48" s="3">
+        <v>71800</v>
+      </c>
+      <c r="I48" s="3">
         <v>51900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>43600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>34000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>30000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27500</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,16 +2759,19 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E49" s="3">
         <v>38700</v>
-      </c>
-      <c r="E49" s="3">
-        <v>6300</v>
       </c>
       <c r="F49" s="3">
         <v>6300</v>
@@ -2684,8 +2794,8 @@
       <c r="L49" s="3">
         <v>6300</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
+      <c r="M49" s="3">
+        <v>6300</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,41 +2927,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E52" s="3">
         <v>2600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>11500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,41 +3039,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>642200</v>
+      </c>
+      <c r="E54" s="3">
         <v>602200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>570200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>497600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>550200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>438800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>383800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>333500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>371200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>240100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2970,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,41 +3141,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>277400</v>
+      </c>
+      <c r="E57" s="3">
         <v>238400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>177000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>235400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>185500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>151600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>127200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>176700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>118500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3065,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3118,41 +3251,44 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E59" s="3">
         <v>40600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>236500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>23500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>31500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>27500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>24800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>18100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3171,41 +3307,44 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>302000</v>
+      </c>
+      <c r="E60" s="3">
         <v>279000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>255400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>200600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>267000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>213000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>176400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>145300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>191600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>129600</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,41 +3419,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E62" s="3">
         <v>30600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>30900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>29300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>26100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,41 +3643,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>330000</v>
+      </c>
+      <c r="E66" s="3">
         <v>309600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>286300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>229900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>293000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>218000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>181700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>149400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>195800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>132000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3542,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3699,11 +3866,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>61200</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,41 +3945,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E72" s="3">
         <v>115200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>111900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>104100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>99300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>71100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>57500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>47600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>42700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>23900</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3828,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,41 +4169,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>312200</v>
+      </c>
+      <c r="E76" s="3">
         <v>292600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>283900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>267700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>257200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>220800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>202100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>184100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>175400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>46900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4040,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,108 +4281,114 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E81" s="3">
         <v>3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>28200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>13500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4204,8 +4398,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,38 +4422,39 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E83" s="3">
         <v>9100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,38 +4756,41 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E89" s="3">
         <v>28100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>20500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>19300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>28500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>26400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>21100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8600</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4596,8 +4812,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,38 +4836,39 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14600</v>
+        <v>-12300</v>
       </c>
       <c r="E91" s="3">
-        <v>-12200</v>
+        <v>-17400</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>-14800</v>
       </c>
       <c r="G91" s="3">
-        <v>-7600</v>
+        <v>-4400</v>
       </c>
       <c r="H91" s="3">
-        <v>-11000</v>
+        <v>-9800</v>
       </c>
       <c r="I91" s="3">
-        <v>-11500</v>
+        <v>-13000</v>
       </c>
       <c r="J91" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4670,8 +4890,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,38 +5002,41 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-28000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-45800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-27800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-39600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-28900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-16800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4829,8 +5058,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,38 +5304,41 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>48100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5115,8 +5360,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,38 +5416,41 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-22600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>40600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5219,6 +5470,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUBM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUBM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,283 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>63300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>55400</v>
+      </c>
+      <c r="F8" s="3">
         <v>74300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>64500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>63000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>54600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>75600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>58100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>49700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>43600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>56200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>37800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>26400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>28300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>34400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>28500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>27400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>23600</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>23900</v>
+      </c>
+      <c r="F9" s="3">
         <v>23000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>21600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>19000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>18000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>16900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>16000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>13100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>12300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>11500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>10500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>9200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>10100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>9300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>9600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>8400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>8800</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>31500</v>
+      </c>
+      <c r="F10" s="3">
         <v>51300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>42900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>44000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>36600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>58700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>42100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>36600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>31300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>44800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>27300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>17200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>18200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>25100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>18900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>19000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>14800</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,64 +962,72 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F12" s="3">
         <v>5900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>5100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>5100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>4800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>4100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>4100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>3900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>3700</v>
-      </c>
-      <c r="L12" s="3">
-        <v>3000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>3400</v>
       </c>
       <c r="N12" s="3">
         <v>3000</v>
       </c>
       <c r="O12" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q12" s="3">
         <v>2900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>3100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>3000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>3300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>3100</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1082,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1144,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>66100</v>
+      </c>
+      <c r="F17" s="3">
         <v>57800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>54900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>53200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>50000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>47600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>44000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>39500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>37000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>34000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3">
         <v>28500</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F18" s="3">
         <v>16500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>9600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>9800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>4600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>28000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>14100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>10200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>6600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>22200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
         <v>5900</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1379,134 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-4900</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>5700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F21" s="3">
         <v>27500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>13800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>17100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>13400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>40800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>20600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>15000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>11400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>25900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>18500</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1561,138 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F23" s="3">
         <v>16800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>4700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>9700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>6200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>33700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>14300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>9900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>6800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>21700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>7900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>5800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>4000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>2200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-2800</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F24" s="3">
         <v>4000</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1900</v>
       </c>
       <c r="G24" s="3">
         <v>1400</v>
       </c>
       <c r="H24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J24" s="3">
         <v>5500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-500</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F26" s="3">
         <v>12800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>7800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>4800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>28200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>13500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>9900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>4900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>18800</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3">
         <v>4100</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F27" s="3">
         <v>12800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>7800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>4800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>28200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>13500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>9900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>4900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>5400</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2119,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>4900</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-5700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F33" s="3">
         <v>12800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>7800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>4800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>28200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>13500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>9900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>4900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>5400</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F35" s="3">
         <v>12800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>7800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>4800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>28200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>13500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>9900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>4900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>5400</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,47 +2486,49 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>105500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>79300</v>
+      </c>
+      <c r="F41" s="3">
         <v>92400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>52200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>51900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>74500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>82500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>89400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>90600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>76600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>81200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>40600</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,47 +2544,53 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>65400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>93900</v>
+      </c>
+      <c r="F42" s="3">
         <v>82000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>113900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>131100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>100300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>77100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>47400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>31400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>33400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>19800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>14600</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2426,47 +2606,53 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>258000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>253000</v>
+      </c>
+      <c r="F43" s="3">
         <v>314300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>277300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>264000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>218400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>286900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>228400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>195400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>173100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>219500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>140500</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2482,8 +2668,14 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,47 +2730,53 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F45" s="3">
         <v>14800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>14900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>13100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>11800</v>
-      </c>
-      <c r="H45" s="3">
-        <v>14200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>13000</v>
       </c>
       <c r="J45" s="3">
         <v>14200</v>
       </c>
       <c r="K45" s="3">
+        <v>13000</v>
+      </c>
+      <c r="L45" s="3">
+        <v>14200</v>
+      </c>
+      <c r="M45" s="3">
         <v>8000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>6600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>7500</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2594,47 +2792,53 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>443200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>440300</v>
+      </c>
+      <c r="F46" s="3">
         <v>503500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>458200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>460100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>404900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>460700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>378100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>331600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>291100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>327100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>203200</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2854,14 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,47 +2916,53 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>93400</v>
+      </c>
+      <c r="F48" s="3">
         <v>97400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>102700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>91600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>71800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>71800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>51900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>43600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>34000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>30000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>27500</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2762,22 +2978,28 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>36600</v>
+      </c>
+      <c r="F49" s="3">
         <v>37900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>38700</v>
-      </c>
-      <c r="F49" s="3">
-        <v>6300</v>
-      </c>
-      <c r="G49" s="3">
-        <v>6300</v>
       </c>
       <c r="H49" s="3">
         <v>6300</v>
@@ -2797,11 +3019,11 @@
       <c r="M49" s="3">
         <v>6300</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
+      <c r="N49" s="3">
+        <v>6300</v>
+      </c>
+      <c r="O49" s="3">
+        <v>6300</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,47 +3164,53 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F52" s="3">
         <v>3500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>12300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>14700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>11500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>7800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2986,8 +3226,14 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,47 +3288,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>583700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>577500</v>
+      </c>
+      <c r="F54" s="3">
         <v>642200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>602200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>570200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>497600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>550200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>438800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>383800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>333500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>371200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>240100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3350,14 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,47 +3402,49 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>277400</v>
+        <v>226600</v>
       </c>
       <c r="E57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>266500</v>
+      </c>
+      <c r="G57" s="3">
         <v>238400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>19000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>177000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>235400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>185500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>151600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>127200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>176700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>118500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3198,8 +3460,14 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,47 +3522,53 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24600</v>
+        <v>42200</v>
       </c>
       <c r="E59" s="3">
+        <v>241300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>35500</v>
+      </c>
+      <c r="G59" s="3">
         <v>40600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>236500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>23500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>31500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>27500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>24800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>18100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>14800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>11000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3310,47 +3584,53 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>268800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>247600</v>
+      </c>
+      <c r="F60" s="3">
         <v>302000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>279000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>255400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>200600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>267000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>213000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>176400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>145300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>191600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>129600</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3366,8 +3646,14 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,47 +3708,53 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>23500</v>
+      </c>
+      <c r="F62" s="3">
         <v>28000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>30600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>30900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>29300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>26100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>5000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>5300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>4100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>4200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2400</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,47 +3956,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>289100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>271100</v>
+      </c>
+      <c r="F66" s="3">
         <v>330000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>309600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>286300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>229900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>293000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>218000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>181700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>149400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>195800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>132000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3702,8 +4018,14 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3869,14 +4205,14 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>61200</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,47 +4290,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>122100</v>
+      </c>
+      <c r="F72" s="3">
         <v>128000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>115200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>111900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>104100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>99300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>71100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>57500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>47600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>42700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>23900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4352,14 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,47 +4538,53 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>294500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>306400</v>
+      </c>
+      <c r="F76" s="3">
         <v>312200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>292600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>283900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>267700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>257200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>220800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>202100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>184100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>175400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>46900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4228,8 +4600,14 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F81" s="3">
         <v>12800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>7800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>4800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>28200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>13500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>9900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>4900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>5400</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,44 +4819,46 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F83" s="3">
         <v>10700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>9100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>7300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>7200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>7100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>6300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>5100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>4600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>4200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4479,8 +4877,14 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,44 +5187,50 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F89" s="3">
         <v>19400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>28100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>20500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>19300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>28500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>26400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>21100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>12700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>8600</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4815,8 +5249,14 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,44 +5277,46 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-12300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-17400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-14800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-4400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-9800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-13000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-13400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-11300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4893,8 +5335,14 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,44 +5459,50 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="F94" s="3">
         <v>20200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-28000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-45800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-27800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-39600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-28900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-11300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-16800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-18100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5061,8 +5521,14 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,44 +5793,50 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>2700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>4300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>4200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>48100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5363,8 +5855,14 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,44 +5917,50 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F102" s="3">
         <v>40200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-22600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-8000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-6900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>14000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-4500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>40600</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5473,6 +5977,12 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
